--- a/manobrabilidade.xlsx
+++ b/manobrabilidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 2/RM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B9EB01DD-797E-4748-803D-DE767474E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{798151D8-5A06-43EB-BE8C-6E862A2B3506}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{B9EB01DD-797E-4748-803D-DE767474E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BCCB46-8741-4F65-B2C3-A2B16F5D4373}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="3792" windowWidth="10140" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2777,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2837,7 +2837,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <f>B5-B4</f>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
